--- a/data/hotels_by_city/Dallas/Dallas_shard_217.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Emily  H</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We arrived around 230 am sunday morning. The guy at the front desk had to show us to our rooms because they were out of room keys. The room looked nice at first but as I was plugging my phone in my husband uhoh I said what??? He pointed to the kitchenette stove top where I see a roach crawling on the burner. My husband got a tissue a killed the roach and flushed it down the toliet. The shower had someone's curly black hair in the corners of the tub. Very dirty!!More</t>
   </si>
   <si>
+    <t>lindasF3011IZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r505341138-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Although my stay was not very long, I found the facility to be very convenient just off Dallas Parkway and close to my  event center.  I will choose Extended Stay America as often as I can.  Great place to stay for short or extended period.More</t>
   </si>
   <si>
+    <t>mariedelaney2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r568286356-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>We stayed at Frankford Road ESA in March 2018.We were a family group having three rooms. The staff were extremely helpful and friendly during our stay. The rooms were clean, comfortable and adequate for our needs.Special thanks go to Christie the manager who arranged for our rooms to be on the same floor. Tafiana and Sarah on the front desk who were very helpful and nothing was too much trouble for them.Thank you to you all.More</t>
   </si>
   <si>
+    <t>momofthreeboys0804</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r567104074-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>I was unfortunately a victim of domestic violence that did not take place at the property but the police did want to take photos of my injuries in the hotel room.I was told because the police were called that they would no longer rent a room to me nor would they refund the two weeks I paid im advance for the room. I am disgusted that not only am I recovering from my injuries and the assault I went through last night I am also now out on the street.  Please beware if you happen to become a victim of another person that you will not be allowed to stay at the property again.More</t>
   </si>
   <si>
+    <t>YNOTME27399</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r561813394-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>I must admit I’ve been in and out hotels throughout the last few years, and only a select few have actually made me want to take the time to acknowledge the experience that my family has had here.  It is exceptionally clean, the staff is very hospitable, and the management here actually goes above and beyond ones expectations to seeing that you feel as comfortable as if you were at home!I highly recommend this place to anyone that needs to have a place to stay either for a day or months!  Also would like to acknowledge the manager Kristi for her professionalism in customer care.  Would be nice to see more people like her.More</t>
   </si>
   <si>
+    <t>danhV8075RD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r559585020-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Great price for extended stays. Allows great savings on meals and staff was very courteous. Sleeps 4 to a for a double room at a decent price for under a week. Long term even better rates. I will put people up here when they travel for work. More</t>
   </si>
   <si>
+    <t>Katie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r558621946-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>They will overbook themselves and give your room away. The hotel is dirty and they allow aggresive dogs to stay there. Door lock was broken!  Homeless people were coming and going. They had there dogs, cup and sign and blankets. Hotel smelled of feces.More</t>
   </si>
   <si>
+    <t>Eea010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556981639-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>Poor light fixtures and bed bugs and hair on bed. I would like to request a complementary stay due to the inconvenience I experienced at this location. The desk staff was helpful but quality was very poorMore</t>
   </si>
   <si>
+    <t>Lela Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556527745-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>Extended Stay had lost me...I was NEVER again going to book with them after  mediocre at best visits at a couple locations. But a friend messed up so I had no choice but I am thankful they did!From the moment I walked through the front door this location was different and a breathe of fresh air! It’s no frills which is perfectly fine when the staff is as terrific as they are here. The rooms are quite spacious, the hotel is close to everything, and feels safer than any in this price point and higher that I have encountered. Ample, well lit, free parking, free WiFi, free grab and go breakfast. Gym, pool, laundry. Join their club and you get great deals emailed to youMore</t>
   </si>
   <si>
+    <t>ricergrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556324121-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Room is clean and quiet.  Staff is helpful and Christie made my stay enjoyable.  Love the free breakfast and the pool looks awesome but with this Texas weather I will have to wait till I come back to perhaps enjoy it. More</t>
   </si>
   <si>
+    <t>Natalie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556320214-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>Ive been staying here a few weeks and Will be here a few more. This place has great customer service ive seen in a long time. Clean spacious rooms. Christie penn is amazing great communication, great personality, very warm and welcoming. I highly recommend this place.More</t>
   </si>
   <si>
+    <t>charlesbY5052YY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r549504283-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>When in Dallas, this is the best location. Kade, Tina, and Tatiana helped my stay to feel like home. Outside of the staff, I really enjoyed my room. Not sure if you could beat the location of this property, which also comes with a great price. More</t>
   </si>
   <si>
+    <t>fouchermr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r546651937-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>Roaches on the floor, sticky floors, half of the appliances did not work, missing paint from the tub, stove area had residue and was not clean, and the receptionist was rude telling me that I did not pay for the hotel even though I had proof that the payment was made.More</t>
   </si>
   <si>
+    <t>James A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r539554740-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>1. Saw Priceline had room list for $72 and Extended Stay had online booking for $79. Called Extended Stay to booking if they could Matt. Talked to some sketchy offshore dude thwtbmy promised $79 but with a 15% discount once I arrived at front desk and paid. Never happened...and lot of nice yes we can make that happen when Manager arrives but such a hassle that never got that far. Front desk clerk was polite but over worked but most of the time not to be found and neither was manager. Or, if at desk, a long line of unhappy people waiting for service and check In.2. Common areas are dirty. Rugs have buildup of debris and food particles from many days to weeks between vacuuming. Elevators, same. Sticky floors, etc.3. Room cleanliness a bit better but toliette had very visible mold ring, i.e. housekeeping and.managers must see this but obviously don't care enough to actually take action and clean at even a fundamental level.4. Hotel room is tired. Chipped counters, dented appliances, No coffee maker, silverware, pots, pans or anything along those lines like other extended stay hotels. Do yourself a favor and find another hotel in $80 price range. For what I got, I could have saved $20 and just stayed at a Motel 6 or Red Roof for the same level of dirt and disrepair.More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r526036470-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>After several weeks staying here my room was finally cleaned at the request of the manager by the maid Chelsea. Chelsea did a awesome job and the manager is Awesome! Even if it took 4 weeks. Front Desk is Awesome tooMore</t>
   </si>
   <si>
+    <t>236derrickd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r506536838-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>Staying here for six weeks. they are very acommedating. My room service was great and received free wifi. Here for HVAC training for retail ready career center. The pool is also nice and clean. RecommendedMore</t>
   </si>
   <si>
+    <t>598ijaza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r498441846-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Never schedule a meeting here. This is a shady place. Unclean and pathetic. I would not recommend this place at all. I made a big mistake by scheduling a business meeting there thinking that it may be a good spot since its on DNT but i was shocked to see that terrible place as I entered from the side door.More</t>
   </si>
   <si>
+    <t>lisandrope</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r495037627-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>The room smelled and didn't look like it had been cleaned...ever. The shuttle is not as advertised-it only ran twice a day to the school and back. There was a gang fight in the parking lot- several people tried to drag the lobby furniture out into the parking lot. We left as soon as we felt safe to leave.More</t>
   </si>
   <si>
+    <t>moniguer2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r492030822-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
     <t>It was all good. I came in at 2am in the morning. Everyone was friendly and accommodating. This has been a great experience and I would recommend this hotel to my family and friends. Thank you. I used to work front desk for a business owner and this is a sigh of relief.More</t>
   </si>
   <si>
+    <t>Cornelius A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r487970950-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +732,9 @@
     <t>Clean rooms, pool, amenities and general area.  The  staff is super friendly. They have a continental breakfast that suits the needs. amenities and location is central for all of Dallas and the metroplex.More</t>
   </si>
   <si>
+    <t>R3046JMmartinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r484788030-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>I loved this place because it is very nice and quiet.Some hotels people makes noise like they are walking in a high crime street or area.Very friendly staff.When i plan to visit Dallas again,this will be the place i will spend my daysMore</t>
   </si>
   <si>
+    <t>Josh38th</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r479576825-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>Lobis Teai Sky Gavin and Gm are awesome.. the Great place to stay..great location..clean friendly.the breakfast bar is all ways neat and clean and most important its all ways stockAnd guest service is all ways with a smile and friendly greet.........................More</t>
   </si>
   <si>
+    <t>Ibidapo I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r479477309-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>The hotel is a nice place and well located. Nice rooms and Teai Tubbs and her team are really great people who go the extra mile in ensuring that my stay day was home outside home.The feeling you get when you get into the facility is warm and friendly. It is a well kept facility with high standards and the location is central and easy access to places around.I would definitely come back and also highly recommend the place to friends and family when going to Dallas.More</t>
   </si>
   <si>
+    <t>Mega M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r470439421-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>The hotel is ok to stay out. The front desk customer service is great. The rooms get cleaned and restocked once a week. I am here for training in a new Carter path so I can't complain since the company is paying for it. The only thing I can say anything bad is the location in which the hotel resides.</t>
   </si>
   <si>
+    <t>AbbyGarcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r465426343-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Teah and Lobis are amazing people and greatly represent Extended Stay America. They are always eager to help with smiling faces, and have been a pleasure to work with. The rooms are great too! The bed is really comfortable. My room was clean and it feels safe here. More</t>
   </si>
   <si>
+    <t>D D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r464332173-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>No sheets for pullout, nothing in cabinets at all, counters not clean, breakfast was granola bars muffins. Very disappointed. Only a few analog stations, needed a 2 bed room but they refused to upgrade us even though the place was obviously empty.</t>
   </si>
   <si>
+    <t>JD-pe123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r463347877-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -816,6 +897,9 @@
     <t>I've had to stay in this hotel for some months because i'm studying around here. when i arrived there was a good team of people working to see that everything was going correctly in the hotel. A couple months ago a new manager came and stuff kept the same for a while until the payment time came, it appears that they are charging me more than they should and he doesn't explain why?. He just says that it is what the system does and when he is asked why he says it's the system and he can't do anything. Also when asked if he knows why may that happen he says HE DOES KNOW but doesn't tell why. The previous manager and assistant were amazing, but now if i could this as worse than terrible i would. His name is Germain or something like that by the way (In case there is someone higher up than him reading this and can correct this sort of attitude).More</t>
   </si>
   <si>
+    <t>ikeh3d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r454267693-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -840,6 +924,9 @@
     <t>I was booked at this hotel as were my 2 four man crews. Because of a mix up in our corporate travel department, the rooms for the crews were not booked. There was a huge convention booked for the following couple of days and there were no rooms available.Lobis T. Neal was working the front desk that night and went well above and beyond in working with me in getting our crews put up for that night and subsequently for the next 32 days required to complete our project there in Dallas.I would without hesitation, return to stay at this hotel.More</t>
   </si>
   <si>
+    <t>Kathleen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r451527312-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -864,6 +951,9 @@
     <t>Better bed than in other ESAs; nicer property as it wasn't built to be an Extended Stay America.  Very pleasant lobby with tables, chairs, couches, and a fireplace [which I hope they've figured out how to light since then.]  We booked this through Priceline Express and were disappointed to find out we'd been given an ESA, but delighted upon arrival at the property.  Same chintzy breakfast as all ESAs, but quite a great deal for the money, and management went out of their way to accommodate our request for a downstairs room.  [No elevator].  Swimming pool looked nice, though we didn't use it since it was winter.More</t>
   </si>
   <si>
+    <t>Cynthia  M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r433701612-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,6 +981,9 @@
     <t>Watch out!! If u have a disability. .it is NOT.....ADA accessible!!..the mgr..refused to open the back gate connected to the sidewalk...I was in a wheelchair. .just got off city bus...the only other acces..is ON A HIGHWAY.!!I had to get on DALLAS PARKWAY..Cars..trucks..flying by and honking. .scooting backward to get to the hotel...1 block..away....the assistant mgr..said..people who CAN walk don't have a sidewalk either..IF YOU CAN'T DRIVE. onto the property. ..you can't SAFELY..stay there..IF checked out the next morning. .it took..5 days for priceline to refund my 6 nights..it had prepaid..it had to pay for that first night.....THEN..the room. Was not Ada accessible. .no bars in bathroom..it their danky..room...it had to hold onto the curtain.. and sink to transfer..A NIGHTMARE! !....THE MGR NEVER DID ANYTHING TO RESOLVE THE SITUATION. .More</t>
   </si>
   <si>
+    <t>heather l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r432935468-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1011,9 @@
     <t>We stayed here overnight when we have a long layover. The staff was super nice, grounds were kept decent and it was very quiet. Breakfast muffins and coffee were a very nice addition on our way out the door. Would stay here again!More</t>
   </si>
   <si>
+    <t>JimNtexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r432076419-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1032,9 @@
     <t>I spent a month here while attending training in Dallas.   Our hosts had negotiated about a 50% discount over the rack rate.   For that price I was satisfied.  For the advertised price in October 2016 of $99/day I would have felt really ripped off.  The best part of this hotel is the staff.  They are all helpful and polite.  The WIFi is satisfactory, and you have basic cable TV.    I had a ground floor room next to the swimming pool which was adequate.  It was clean and had no bugs.My friends who had ground floor rooms facing the outside suffered through a plague of crickets.There is one Big Lie in Extended Stay America's advertising.THERE IS NO BREAKFAST.   They layout some granola bars and plastic muffins.  That's 'breakfast'.   NOTAgain, this place is decent with good staff.  Be ready to ask for a different room if they one they give you has bugs or broken fixtures.  They'll do it.Don't pay the rack rate.More</t>
   </si>
   <si>
+    <t>Jimmy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r395145743-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1060,9 @@
   </si>
   <si>
     <t>Audrey Kimbrell made this experience excellent. She helped out with any situation that arose. The rooms were well kept and well sized for the extended stay. There was always coffee, muffins, fresh fruit, and granola bars out every morning. Close to albertsons and several fast food restaraunts.More</t>
+  </si>
+  <si>
+    <t>Princess_Ronna</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r395082291-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
@@ -986,6 +1088,9 @@
 1. The assistant manager, Aubrey; is not worthy of this hotel and is only courteous to specific genders.  I do not plan on interacting...I have stayed in this hotel for the past three weeks and I have one week left.  I have thoroughly enjoyed my stay as the staff is very friendly (except for one assistant manager who is just absolutely horrible).  The Manager, Sergio; is simply very calm and relaxing and easy to speak with and will go out of his way to help you out.  Teai, front desk; is sweet and very personable and totally believe she should be promoted to management.  She greets everyone extremely professional.  Maria, my cleaner; is so sweet and caring and would just knock on my door to see if I needed anything on the days she did not clean my room.  She always has a smile on her face and super-duper friendly.  Earsmo, oh my goodness!  This man is so sweet.  Anytime he saw me, he would smile and greet me!  He is always upbeat and totally makes you smile when you see him.  There are other workers, but these are the cream of the crop.  This is in a perfect area of Dallas.  North Dallas.  Minutes away from the Galleria Mall and Willow Bend Mall.  Minutes from Plano, Carrollton, Richardson, and a straight shot to Downtown Dallas.  Perfect location if you want everything at your finger tips!My issues here:1. The assistant manager, Aubrey; is not worthy of this hotel and is only courteous to specific genders.  I do not plan on interacting with her for my next 8 days, here. She needs to take some management classes along with  customer service classes.  2. I reserved my room via the phone.  Amber who took my reservation, promised me a first floor room; however, I was told I could not have one when I got here (the elevator here is very slow even though it is only 3 floors.  So, I took the stairs....90% of the time!More</t>
   </si>
   <si>
+    <t>Sarah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r386458493-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1115,9 @@
     <t>Staff was very helpful and friendly. Our first room had a broken cabinet door so they changed our room to a different one. There were not hair dryers in the bathroom, we had to get one from the front desk. The thermostat was annoying - it kept going up to 78 when we put it on 72. We were very hot. The breakfast was not great- it was a grab and go breakfast of coffee, muffins, granola bars, and apples. I was expecting more variety I guess. Our phone in our room did not work. I wouldn't stay again but if you're looking for a cheap hotel this one is ok.More</t>
   </si>
   <si>
+    <t>marciastone39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r381465926-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1034,6 +1142,9 @@
     <t>Great location, friendly accommodating staff, and clean spacious rooms. I was  very satisfied with the overall stay and that's hard to do. Thank you.  I look forward to seeing you next year and B.B.Q with my co-workers.More</t>
   </si>
   <si>
+    <t>Anthony P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r381245948-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1163,9 @@
     <t>After a period away I have returned to the Big D and to the Extended Stay America at Frankford Road in North Dallas. Much has changed, the hotel has been renovated, flooring and mattresses are new as are many of the people but it is still great value for the price with the same friendly, helpful approach from every member of the staff. The pool and patio are a great place to relax and the grills are still there! Many of the long term guests are still here and like me wouldn't think of staying anywhere else!More</t>
   </si>
   <si>
+    <t>yojimbo56003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r380388794-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1181,9 @@
     <t>Clean, quiet room. Got a suite for a great price on Priceline. Bed was good, ac was adequate, the hot water stayed hot all through the shower. The TV could have been bigger, but it was quite a ways from the bed because the room was good-sized. A comfortable place to spend a night.</t>
   </si>
   <si>
+    <t>Yelda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r349978735-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1208,9 @@
     <t>Also dogs friendly wonderful we feel like home Location was great for what we were doing. The good: room was spotlessly clean, large and pleasant. People who worked there were very nice. Price was reasonable. The bad: wifi in our room was very spotty, often not there at all. Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake. More</t>
   </si>
   <si>
+    <t>Randy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r348456603-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1118,6 +1238,9 @@
     <t>Check in and Check was terrible...people upfront were aloof and seemed confused and not interested or sure of how to check me in or out. I was not looked up at once and the guy just handed my key, no welcome, thanks or anything. when i asked for my bill he went behind a wall and after ten minutes i just left.More</t>
   </si>
   <si>
+    <t>Breakfast86ed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r333470615-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1268,9 @@
     <t>nice roomy place liking it so far not super plush but feels more like a apt so for that im happy was really looking forward to breakfast Fruit and apples IS NOT BREAKFAST it is a snack..yall please do something about having a actual breakfast I mean yall do charge enough...More</t>
   </si>
   <si>
+    <t>Tannerwes89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r329963507-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1298,9 @@
     <t>Dallas became my home this past summer. Having never resided at an extended stay, I was a bit skeptical booking my first reservation. Upon, settling in, I quickly felt home. The rooms were very spacious, comfortable but most of all it was the staff that killed it for me. Anytime I needed something or was just passing through, I was well accommodated to. Felt very valued and is why I have returned twice since. With this customer service, you guys shall be proud. Thank you all!More</t>
   </si>
   <si>
+    <t>Missy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r323871934-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1328,9 @@
     <t>TERRIBLE PLACE TO STAY. PEOPLE SMOKE HAVE DOGS THERE IS NO BREAKFAST. It's a grab and go coffee bar. With ORANGES. Screaming down the hallways. Shady characters. White maid selling drugs and playing loud music. Tv's are too small and too far from beds. More</t>
   </si>
   <si>
+    <t>EvylikeChevy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r320638842-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1346,9 @@
     <t>I've basically been living in hotels the last few weeks. This is by far the best. Big room, with closet, refrigerator, microwave oven, stove. It has a pool, which I'd never use, but the view is nice. Great location. Staff is nice, helpful. Breakfast leaves something to be desired. It's basically apples.</t>
   </si>
   <si>
+    <t>Marino059</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r292470722-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1373,9 @@
     <t>The rooms are very large and clean. There is a lovely pool and hot tub, along with barbeque grills. It has a great location and friendly staff. The beds are extremely comfortable, and there is even a shuttle service to take you to nearby shopping and business locations. There are also very good reatuarants nearby. The price was great, and I would definately stay here again.More</t>
   </si>
   <si>
+    <t>Jude R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r284532851-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1401,9 @@
   </si>
   <si>
     <t>The attentiveness and care by manager James, and staff people such as Freddy, Maria, Jason and Tia made this home away from home. There is no question that my work engagement has lasted longer because as a contractor employed in North Dallas I had such a clean and wonderfully pleasant place to rest, restore, get guidance about the area, and even address business back home. The van service was a life-saver in my work commute. The coffee and breakfast available started my days off efficiently. I think this is an excellent place for any traveler, but for an extended-stay business traveler like myself, it really was home away from home and made achieving my goals in Texas possible!More</t>
+  </si>
+  <si>
+    <t>Morris C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r277120462-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
@@ -1808,43 +1949,47 @@
       <c r="A2" t="n">
         <v>37246</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1856,56 +2001,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37246</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1927,56 +2076,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37246</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1992,56 +2145,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37246</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2053,47 +2210,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37246</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -2110,56 +2271,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37246</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2181,56 +2346,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37246</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>15289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2252,56 +2421,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37246</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2323,56 +2496,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37246</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2384,56 +2561,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37246</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2445,56 +2626,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37246</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>22264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2506,56 +2691,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37246</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136038</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2577,56 +2766,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37246</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136039</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2638,56 +2831,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37246</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6838</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2699,56 +2896,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37246</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2760,56 +2961,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37246</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136040</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2831,56 +3036,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37246</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136041</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2902,56 +3111,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37246</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136042</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2973,56 +3186,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37246</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136043</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3044,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37246</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136044</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3105,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37246</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136045</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3172,56 +3397,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37246</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136046</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3233,56 +3462,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37246</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136047</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3300,56 +3533,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37246</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136048</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3367,41 +3604,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37246</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136049</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -3418,56 +3659,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37246</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>75068</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3485,50 +3730,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37246</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136050</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3548,50 +3797,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37246</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136051</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3607,47 +3860,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37246</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>13561</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3664,56 +3921,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37246</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136052</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3725,56 +3986,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37246</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136053</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3790,56 +4055,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37246</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136054</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3857,56 +4126,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Y33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37246</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>27980</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3924,56 +4197,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37246</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136055</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3993,50 +4270,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37246</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C36" t="s">
+        <v>354</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4048,56 +4329,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="X36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Y36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37246</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136056</v>
+      </c>
+      <c r="C37" t="s">
+        <v>363</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4113,56 +4398,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="X37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="Y37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37246</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>12246</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4178,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37246</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136057</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4245,41 +4538,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37246</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136058</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4296,56 +4593,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37246</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>8855</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4363,56 +4664,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="X41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37246</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136059</v>
+      </c>
+      <c r="C42" t="s">
+        <v>404</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4430,56 +4735,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="X42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37246</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136060</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4491,56 +4800,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="X43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="Y43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37246</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136061</v>
+      </c>
+      <c r="C44" t="s">
+        <v>424</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="J44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="L44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4552,56 +4865,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="X44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37246</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136062</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4621,41 +4938,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37246</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136063</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4672,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="X46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37246</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136064</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4739,56 +5064,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="X47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="Y47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37246</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136065</v>
+      </c>
+      <c r="C48" t="s">
+        <v>459</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="K48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="L48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4804,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="X48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_217.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_217.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Emily  H</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r597976736-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109339</t>
+  </si>
+  <si>
+    <t>597976736</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Most horrible "Hotel" we ever have stayed at!</t>
+  </si>
+  <si>
+    <t>We booked a reservation from 7/12-7/21 for a national sporting event for our son. We traveled all the way from VT and packed very light, specifically choosing this location for the laundry room, breakfast, location to my son's events, separate bedrooms and full kitchen. We arrived earlier than expected (2am) and paid full price for a room because our reseravtion wasn't until later that day. Upon going to our room (which we were told would change the following day in our reservation) The first thing we noticed was the blood and urine on the unmade bed in one of the two bedrooms. Horrifying! The AC in the room was also broke and it is HOT. We called the front desk and the attendent came and changed the bedding. The next day we went to the front desk around 10am eager to get into our reserved room and found out they filled out reservation overnight. The manager came by and apologized for the blood and urine and a cleaning crew came in to clean the room. They brought in a portable AC which didn't really help because it blew more hot air out of the back we couldn't get the room under 80 most of the time. A bottle of expensive lotion of mine mysteriously disappeared and though I asked the cleaning crew if they had possibly seen it, it was never found it mentioned to me. We weren't given enough...We booked a reservation from 7/12-7/21 for a national sporting event for our son. We traveled all the way from VT and packed very light, specifically choosing this location for the laundry room, breakfast, location to my son's events, separate bedrooms and full kitchen. We arrived earlier than expected (2am) and paid full price for a room because our reseravtion wasn't until later that day. Upon going to our room (which we were told would change the following day in our reservation) The first thing we noticed was the blood and urine on the unmade bed in one of the two bedrooms. Horrifying! The AC in the room was also broke and it is HOT. We called the front desk and the attendent came and changed the bedding. The next day we went to the front desk around 10am eager to get into our reserved room and found out they filled out reservation overnight. The manager came by and apologized for the blood and urine and a cleaning crew came in to clean the room. They brought in a portable AC which didn't really help because it blew more hot air out of the back we couldn't get the room under 80 most of the time. A bottle of expensive lotion of mine mysteriously disappeared and though I asked the cleaning crew if they had possibly seen it, it was never found it mentioned to me. We weren't given enough pillows and had to wait for them because the hotel apparently ran out. Asking for fresh towels is a waste of time because they always run out of clean towels. There is hardly ever someone in the main lobby. They offer a grab and go breakfast that is the most stingy I've ever seen with zero healthy unprocessed choices like fruit. My kids went down by 8 and it was usually gone or near depleted with super limited choices. The building itself is super dirty, the trash stayed piled up on a container which stunk up the entire second floor the entire time we were there. The weekly maid service never came in to clean our room and the room was literally bare of amenedies other than televisions, shower curtains,ironing board. You have to request dish sets of you want to actually use the kitchen in the rooms. I have pictures but they are too big for this site. Also I called guest relations while staying there and was promised a call back from the DM within 48 hours.... She never called. I called again earlier this morning and guest relations actually called her themselves and she was supposed to call us back and has yet to. We are requesting a partial refund. I also forgot to mention in this that the laundry room was locked up the day after we arrived. I personally asked the manager about it and she would not give me any alternatives for getting our laundry cleaned and one of the reasons we chose this hotel was the laundry facility as our scheedule here was very tight and we aren't familiar with the area and have 3 kids with us. This was the dirtiest and most inconvenient "hotel" I have ever stayed at. It has a projects housing feel! Do not stay here, this was a waste of almost a grand for us, unfortunately because they booked our reservation to someone else we could not find an alternate place with vacancies in our price range on such short notice or we would have gone to another hotel sooner. We called our trip short early and left this morning after we got in last night to see our room was not cleaned at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We booked a reservation from 7/12-7/21 for a national sporting event for our son. We traveled all the way from VT and packed very light, specifically choosing this location for the laundry room, breakfast, location to my son's events, separate bedrooms and full kitchen. We arrived earlier than expected (2am) and paid full price for a room because our reseravtion wasn't until later that day. Upon going to our room (which we were told would change the following day in our reservation) The first thing we noticed was the blood and urine on the unmade bed in one of the two bedrooms. Horrifying! The AC in the room was also broke and it is HOT. We called the front desk and the attendent came and changed the bedding. The next day we went to the front desk around 10am eager to get into our reserved room and found out they filled out reservation overnight. The manager came by and apologized for the blood and urine and a cleaning crew came in to clean the room. They brought in a portable AC which didn't really help because it blew more hot air out of the back we couldn't get the room under 80 most of the time. A bottle of expensive lotion of mine mysteriously disappeared and though I asked the cleaning crew if they had possibly seen it, it was never found it mentioned to me. We weren't given enough...We booked a reservation from 7/12-7/21 for a national sporting event for our son. We traveled all the way from VT and packed very light, specifically choosing this location for the laundry room, breakfast, location to my son's events, separate bedrooms and full kitchen. We arrived earlier than expected (2am) and paid full price for a room because our reseravtion wasn't until later that day. Upon going to our room (which we were told would change the following day in our reservation) The first thing we noticed was the blood and urine on the unmade bed in one of the two bedrooms. Horrifying! The AC in the room was also broke and it is HOT. We called the front desk and the attendent came and changed the bedding. The next day we went to the front desk around 10am eager to get into our reserved room and found out they filled out reservation overnight. The manager came by and apologized for the blood and urine and a cleaning crew came in to clean the room. They brought in a portable AC which didn't really help because it blew more hot air out of the back we couldn't get the room under 80 most of the time. A bottle of expensive lotion of mine mysteriously disappeared and though I asked the cleaning crew if they had possibly seen it, it was never found it mentioned to me. We weren't given enough pillows and had to wait for them because the hotel apparently ran out. Asking for fresh towels is a waste of time because they always run out of clean towels. There is hardly ever someone in the main lobby. They offer a grab and go breakfast that is the most stingy I've ever seen with zero healthy unprocessed choices like fruit. My kids went down by 8 and it was usually gone or near depleted with super limited choices. The building itself is super dirty, the trash stayed piled up on a container which stunk up the entire second floor the entire time we were there. The weekly maid service never came in to clean our room and the room was literally bare of amenedies other than televisions, shower curtains,ironing board. You have to request dish sets of you want to actually use the kitchen in the rooms. I have pictures but they are too big for this site. Also I called guest relations while staying there and was promised a call back from the DM within 48 hours.... She never called. I called again earlier this morning and guest relations actually called her themselves and she was supposed to call us back and has yet to. We are requesting a partial refund. I also forgot to mention in this that the laundry room was locked up the day after we arrived. I personally asked the manager about it and she would not give me any alternatives for getting our laundry cleaned and one of the reasons we chose this hotel was the laundry facility as our scheedule here was very tight and we aren't familiar with the area and have 3 kids with us. This was the dirtiest and most inconvenient "hotel" I have ever stayed at. It has a projects housing feel! Do not stay here, this was a waste of almost a grand for us, unfortunately because they booked our reservation to someone else we could not find an alternate place with vacancies in our price range on such short notice or we would have gone to another hotel sooner. We called our trip short early and left this morning after we got in last night to see our room was not cleaned at all!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r576900989-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109339</t>
-  </si>
-  <si>
     <t>576900989</t>
   </si>
   <si>
@@ -183,16 +210,367 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
   </si>
   <si>
     <t>We arrived around 230 am sunday morning. The guy at the front desk had to show us to our rooms because they were out of room keys. The room looked nice at first but as I was plugging my phone in my husband uhoh I said what??? He pointed to the kitchenette stove top where I see a roach crawling on the burner. My husband got a tissue a killed the roach and flushed it down the toliet. The shower had someone's curly black hair in the corners of the tub. Very dirty!!More</t>
   </si>
   <si>
-    <t>lindasF3011IZ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r568286356-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568286356</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Family group visit</t>
+  </si>
+  <si>
+    <t>We stayed at Frankford Road ESA in March 2018.We were a family group having three rooms. The staff were extremely helpful and friendly during our stay. The rooms were clean, comfortable and adequate for our needs.Special thanks go to Christie the manager who arranged for our rooms to be on the same floor. Tafiana and Sarah on the front desk who were very helpful and nothing was too much trouble for them.Thank you to you all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at Frankford Road ESA in March 2018.We were a family group having three rooms. The staff were extremely helpful and friendly during our stay. The rooms were clean, comfortable and adequate for our needs.Special thanks go to Christie the manager who arranged for our rooms to be on the same floor. Tafiana and Sarah on the front desk who were very helpful and nothing was too much trouble for them.Thank you to you all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r567104074-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>567104074</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Discriminating property</t>
+  </si>
+  <si>
+    <t>I was unfortunately a victim of domestic violence that did not take place at the property but the police did want to take photos of my injuries in the hotel room.I was told because the police were called that they would no longer rent a room to me nor would they refund the two weeks I paid im advance for the room. I am disgusted that not only am I recovering from my injuries and the assault I went through last night I am also now out on the street.  Please beware if you happen to become a victim of another person that you will not be allowed to stay at the property again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>I was unfortunately a victim of domestic violence that did not take place at the property but the police did want to take photos of my injuries in the hotel room.I was told because the police were called that they would no longer rent a room to me nor would they refund the two weeks I paid im advance for the room. I am disgusted that not only am I recovering from my injuries and the assault I went through last night I am also now out on the street.  Please beware if you happen to become a victim of another person that you will not be allowed to stay at the property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r561813394-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>561813394</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay </t>
+  </si>
+  <si>
+    <t>I must admit I’ve been in and out hotels throughout the last few years, and only a select few have actually made me want to take the time to acknowledge the experience that my family has had here.  It is exceptionally clean, the staff is very hospitable, and the management here actually goes above and beyond ones expectations to seeing that you feel as comfortable as if you were at home!I highly recommend this place to anyone that needs to have a place to stay either for a day or months!  Also would like to acknowledge the manager Kristi for her professionalism in customer care.  Would be nice to see more people like her.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>I must admit I’ve been in and out hotels throughout the last few years, and only a select few have actually made me want to take the time to acknowledge the experience that my family has had here.  It is exceptionally clean, the staff is very hospitable, and the management here actually goes above and beyond ones expectations to seeing that you feel as comfortable as if you were at home!I highly recommend this place to anyone that needs to have a place to stay either for a day or months!  Also would like to acknowledge the manager Kristi for her professionalism in customer care.  Would be nice to see more people like her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r559585020-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>559585020</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Great price for extended stays. Allows great savings on meals and staff was very courteous. Sleeps 4 to a for a double room at a decent price for under a week. Long term even better rates. I will put people up here when they travel for work. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Great price for extended stays. Allows great savings on meals and staff was very courteous. Sleeps 4 to a for a double room at a decent price for under a week. Long term even better rates. I will put people up here when they travel for work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r558621946-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>558621946</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>They will overbook themselves and give your room away. The hotel is dirty and they allow aggresive dogs to stay there. Door lock was broken!  Homeless people were coming and going. They had there dogs, cup and sign and blankets. Hotel smelled of feces.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>They will overbook themselves and give your room away. The hotel is dirty and they allow aggresive dogs to stay there. Door lock was broken!  Homeless people were coming and going. They had there dogs, cup and sign and blankets. Hotel smelled of feces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556981639-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556981639</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>Poor light fixtures and bed bugs and hair on bed. I would like to request a complementary stay due to the inconvenience I experienced at this location. The desk staff was helpful but quality was very poorMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Poor light fixtures and bed bugs and hair on bed. I would like to request a complementary stay due to the inconvenience I experienced at this location. The desk staff was helpful but quality was very poorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556527745-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556527745</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Extended Stay in DFW </t>
+  </si>
+  <si>
+    <t>Extended Stay had lost me...I was NEVER again going to book with them after  mediocre at best visits at a couple locations. But a friend messed up so I had no choice but I am thankful they did!From the moment I walked through the front door this location was different and a breathe of fresh air! It’s no frills which is perfectly fine when the staff is as terrific as they are here. The rooms are quite spacious, the hotel is close to everything, and feels safer than any in this price point and higher that I have encountered. Ample, well lit, free parking, free WiFi, free grab and go breakfast. Gym, pool, laundry. Join their club and you get great deals emailed to youMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Extended Stay had lost me...I was NEVER again going to book with them after  mediocre at best visits at a couple locations. But a friend messed up so I had no choice but I am thankful they did!From the moment I walked through the front door this location was different and a breathe of fresh air! It’s no frills which is perfectly fine when the staff is as terrific as they are here. The rooms are quite spacious, the hotel is close to everything, and feels safer than any in this price point and higher that I have encountered. Ample, well lit, free parking, free WiFi, free grab and go breakfast. Gym, pool, laundry. Join their club and you get great deals emailed to youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556324121-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556324121</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome </t>
+  </si>
+  <si>
+    <t>Room is clean and quiet.  Staff is helpful and Christie made my stay enjoyable.  Love the free breakfast and the pool looks awesome but with this Texas weather I will have to wait till I come back to perhaps enjoy it. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Room is clean and quiet.  Staff is helpful and Christie made my stay enjoyable.  Love the free breakfast and the pool looks awesome but with this Texas weather I will have to wait till I come back to perhaps enjoy it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556320214-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>556320214</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Ive been staying here a few weeks and Will be here a few more. This place has great customer service ive seen in a long time. Clean spacious rooms. Christie penn is amazing great communication, great personality, very warm and welcoming. I highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ive been staying here a few weeks and Will be here a few more. This place has great customer service ive seen in a long time. Clean spacious rooms. Christie penn is amazing great communication, great personality, very warm and welcoming. I highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r549504283-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>549504283</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Location and Staff</t>
+  </si>
+  <si>
+    <t>When in Dallas, this is the best location. Kade, Tina, and Tatiana helped my stay to feel like home. Outside of the staff, I really enjoyed my room. Not sure if you could beat the location of this property, which also comes with a great price. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>When in Dallas, this is the best location. Kade, Tina, and Tatiana helped my stay to feel like home. Outside of the staff, I really enjoyed my room. Not sure if you could beat the location of this property, which also comes with a great price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r546651937-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>546651937</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever</t>
+  </si>
+  <si>
+    <t>Roaches on the floor, sticky floors, half of the appliances did not work, missing paint from the tub, stove area had residue and was not clean, and the receptionist was rude telling me that I did not pay for the hotel even though I had proof that the payment was made.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Roaches on the floor, sticky floors, half of the appliances did not work, missing paint from the tub, stove area had residue and was not clean, and the receptionist was rude telling me that I did not pay for the hotel even though I had proof that the payment was made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r539554740-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>539554740</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Starts with a lie...</t>
+  </si>
+  <si>
+    <t>1. Saw Priceline had room list for $72 and Extended Stay had online booking for $79. Called Extended Stay to booking if they could Matt. Talked to some sketchy offshore dude thwtbmy promised $79 but with a 15% discount once I arrived at front desk and paid. Never happened...and lot of nice yes we can make that happen when Manager arrives but such a hassle that never got that far. Front desk clerk was polite but over worked but most of the time not to be found and neither was manager. Or, if at desk, a long line of unhappy people waiting for service and check In.2. Common areas are dirty. Rugs have buildup of debris and food particles from many days to weeks between vacuuming. Elevators, same. Sticky floors, etc.3. Room cleanliness a bit better but toliette had very visible mold ring, i.e. housekeeping and.managers must see this but obviously don't care enough to actually take action and clean at even a fundamental level.4. Hotel room is tired. Chipped counters, dented appliances, No coffee maker, silverware, pots, pans or anything along those lines like other extended stay hotels. Do yourself a favor and find another hotel in $80 price range. For what I got, I could have saved $20 and just stayed at a Motel 6 or Red Roof for the same level of dirt and disrepair.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>1. Saw Priceline had room list for $72 and Extended Stay had online booking for $79. Called Extended Stay to booking if they could Matt. Talked to some sketchy offshore dude thwtbmy promised $79 but with a 15% discount once I arrived at front desk and paid. Never happened...and lot of nice yes we can make that happen when Manager arrives but such a hassle that never got that far. Front desk clerk was polite but over worked but most of the time not to be found and neither was manager. Or, if at desk, a long line of unhappy people waiting for service and check In.2. Common areas are dirty. Rugs have buildup of debris and food particles from many days to weeks between vacuuming. Elevators, same. Sticky floors, etc.3. Room cleanliness a bit better but toliette had very visible mold ring, i.e. housekeeping and.managers must see this but obviously don't care enough to actually take action and clean at even a fundamental level.4. Hotel room is tired. Chipped counters, dented appliances, No coffee maker, silverware, pots, pans or anything along those lines like other extended stay hotels. Do yourself a favor and find another hotel in $80 price range. For what I got, I could have saved $20 and just stayed at a Motel 6 or Red Roof for the same level of dirt and disrepair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r526036470-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>526036470</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America Dallas Coit Rd</t>
+  </si>
+  <si>
+    <t>After several weeks staying here my room was finally cleaned at the request of the manager by the maid Chelsea. Chelsea did a awesome job and the manager is Awesome! Even if it took 4 weeks. Front Desk is Awesome tooMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>After several weeks staying here my room was finally cleaned at the request of the manager by the maid Chelsea. Chelsea did a awesome job and the manager is Awesome! Even if it took 4 weeks. Front Desk is Awesome tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r506536838-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>506536838</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Clean hotel nice rooms</t>
+  </si>
+  <si>
+    <t>Staying here for six weeks. they are very acommedating. My room service was great and received free wifi. Here for HVAC training for retail ready career center. The pool is also nice and clean. RecommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Staying here for six weeks. they are very acommedating. My room service was great and received free wifi. Here for HVAC training for retail ready career center. The pool is also nice and clean. RecommendedMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r505341138-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
@@ -210,12 +588,6 @@
     <t>Although my stay was not very long, I found the facility to be very convenient just off Dallas Parkway and close to my  event center.  I will choose Extended Stay America as often as I can.  Great place to stay for short or extended period.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded July 25, 2017</t>
   </si>
   <si>
@@ -225,402 +597,6 @@
     <t>Although my stay was not very long, I found the facility to be very convenient just off Dallas Parkway and close to my  event center.  I will choose Extended Stay America as often as I can.  Great place to stay for short or extended period.More</t>
   </si>
   <si>
-    <t>mariedelaney2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r568286356-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>568286356</t>
-  </si>
-  <si>
-    <t>03/23/2018</t>
-  </si>
-  <si>
-    <t>Family group visit</t>
-  </si>
-  <si>
-    <t>We stayed at Frankford Road ESA in March 2018.We were a family group having three rooms. The staff were extremely helpful and friendly during our stay. The rooms were clean, comfortable and adequate for our needs.Special thanks go to Christie the manager who arranged for our rooms to be on the same floor. Tafiana and Sarah on the front desk who were very helpful and nothing was too much trouble for them.Thank you to you all.MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded March 24, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 24, 2018</t>
-  </si>
-  <si>
-    <t>We stayed at Frankford Road ESA in March 2018.We were a family group having three rooms. The staff were extremely helpful and friendly during our stay. The rooms were clean, comfortable and adequate for our needs.Special thanks go to Christie the manager who arranged for our rooms to be on the same floor. Tafiana and Sarah on the front desk who were very helpful and nothing was too much trouble for them.Thank you to you all.More</t>
-  </si>
-  <si>
-    <t>momofthreeboys0804</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r567104074-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>567104074</t>
-  </si>
-  <si>
-    <t>03/17/2018</t>
-  </si>
-  <si>
-    <t>Discriminating property</t>
-  </si>
-  <si>
-    <t>I was unfortunately a victim of domestic violence that did not take place at the property but the police did want to take photos of my injuries in the hotel room.I was told because the police were called that they would no longer rent a room to me nor would they refund the two weeks I paid im advance for the room. I am disgusted that not only am I recovering from my injuries and the assault I went through last night I am also now out on the street.  Please beware if you happen to become a victim of another person that you will not be allowed to stay at the property again.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded March 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 26, 2018</t>
-  </si>
-  <si>
-    <t>I was unfortunately a victim of domestic violence that did not take place at the property but the police did want to take photos of my injuries in the hotel room.I was told because the police were called that they would no longer rent a room to me nor would they refund the two weeks I paid im advance for the room. I am disgusted that not only am I recovering from my injuries and the assault I went through last night I am also now out on the street.  Please beware if you happen to become a victim of another person that you will not be allowed to stay at the property again.More</t>
-  </si>
-  <si>
-    <t>YNOTME27399</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r561813394-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>561813394</t>
-  </si>
-  <si>
-    <t>02/20/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our stay </t>
-  </si>
-  <si>
-    <t>I must admit I’ve been in and out hotels throughout the last few years, and only a select few have actually made me want to take the time to acknowledge the experience that my family has had here.  It is exceptionally clean, the staff is very hospitable, and the management here actually goes above and beyond ones expectations to seeing that you feel as comfortable as if you were at home!I highly recommend this place to anyone that needs to have a place to stay either for a day or months!  Also would like to acknowledge the manager Kristi for her professionalism in customer care.  Would be nice to see more people like her.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 21, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 21, 2018</t>
-  </si>
-  <si>
-    <t>I must admit I’ve been in and out hotels throughout the last few years, and only a select few have actually made me want to take the time to acknowledge the experience that my family has had here.  It is exceptionally clean, the staff is very hospitable, and the management here actually goes above and beyond ones expectations to seeing that you feel as comfortable as if you were at home!I highly recommend this place to anyone that needs to have a place to stay either for a day or months!  Also would like to acknowledge the manager Kristi for her professionalism in customer care.  Would be nice to see more people like her.More</t>
-  </si>
-  <si>
-    <t>danhV8075RD</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r559585020-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>559585020</t>
-  </si>
-  <si>
-    <t>02/10/2018</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Great price for extended stays. Allows great savings on meals and staff was very courteous. Sleeps 4 to a for a double room at a decent price for under a week. Long term even better rates. I will put people up here when they travel for work. MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 11, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 11, 2018</t>
-  </si>
-  <si>
-    <t>Great price for extended stays. Allows great savings on meals and staff was very courteous. Sleeps 4 to a for a double room at a decent price for under a week. Long term even better rates. I will put people up here when they travel for work. More</t>
-  </si>
-  <si>
-    <t>Katie S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r558621946-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>558621946</t>
-  </si>
-  <si>
-    <t>02/05/2018</t>
-  </si>
-  <si>
-    <t>Don't stay here!</t>
-  </si>
-  <si>
-    <t>They will overbook themselves and give your room away. The hotel is dirty and they allow aggresive dogs to stay there. Door lock was broken!  Homeless people were coming and going. They had there dogs, cup and sign and blankets. Hotel smelled of feces.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded February 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 5, 2018</t>
-  </si>
-  <si>
-    <t>They will overbook themselves and give your room away. The hotel is dirty and they allow aggresive dogs to stay there. Door lock was broken!  Homeless people were coming and going. They had there dogs, cup and sign and blankets. Hotel smelled of feces.More</t>
-  </si>
-  <si>
-    <t>Eea010</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556981639-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>556981639</t>
-  </si>
-  <si>
-    <t>01/28/2018</t>
-  </si>
-  <si>
-    <t>Bed bugs</t>
-  </si>
-  <si>
-    <t>Poor light fixtures and bed bugs and hair on bed. I would like to request a complementary stay due to the inconvenience I experienced at this location. The desk staff was helpful but quality was very poorMoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 31, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 31, 2018</t>
-  </si>
-  <si>
-    <t>Poor light fixtures and bed bugs and hair on bed. I would like to request a complementary stay due to the inconvenience I experienced at this location. The desk staff was helpful but quality was very poorMore</t>
-  </si>
-  <si>
-    <t>Lela Z</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556527745-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>556527745</t>
-  </si>
-  <si>
-    <t>01/26/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Extended Stay in DFW </t>
-  </si>
-  <si>
-    <t>Extended Stay had lost me...I was NEVER again going to book with them after  mediocre at best visits at a couple locations. But a friend messed up so I had no choice but I am thankful they did!From the moment I walked through the front door this location was different and a breathe of fresh air! It’s no frills which is perfectly fine when the staff is as terrific as they are here. The rooms are quite spacious, the hotel is close to everything, and feels safer than any in this price point and higher that I have encountered. Ample, well lit, free parking, free WiFi, free grab and go breakfast. Gym, pool, laundry. Join their club and you get great deals emailed to youMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 27, 2018</t>
-  </si>
-  <si>
-    <t>Extended Stay had lost me...I was NEVER again going to book with them after  mediocre at best visits at a couple locations. But a friend messed up so I had no choice but I am thankful they did!From the moment I walked through the front door this location was different and a breathe of fresh air! It’s no frills which is perfectly fine when the staff is as terrific as they are here. The rooms are quite spacious, the hotel is close to everything, and feels safer than any in this price point and higher that I have encountered. Ample, well lit, free parking, free WiFi, free grab and go breakfast. Gym, pool, laundry. Join their club and you get great deals emailed to youMore</t>
-  </si>
-  <si>
-    <t>ricergrl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556324121-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>556324121</t>
-  </si>
-  <si>
-    <t>01/25/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awesome </t>
-  </si>
-  <si>
-    <t>Room is clean and quiet.  Staff is helpful and Christie made my stay enjoyable.  Love the free breakfast and the pool looks awesome but with this Texas weather I will have to wait till I come back to perhaps enjoy it. MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded January 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 26, 2018</t>
-  </si>
-  <si>
-    <t>Room is clean and quiet.  Staff is helpful and Christie made my stay enjoyable.  Love the free breakfast and the pool looks awesome but with this Texas weather I will have to wait till I come back to perhaps enjoy it. More</t>
-  </si>
-  <si>
-    <t>Natalie W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r556320214-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>556320214</t>
-  </si>
-  <si>
-    <t>Great experience</t>
-  </si>
-  <si>
-    <t>Ive been staying here a few weeks and Will be here a few more. This place has great customer service ive seen in a long time. Clean spacious rooms. Christie penn is amazing great communication, great personality, very warm and welcoming. I highly recommend this place.MoreShow less</t>
-  </si>
-  <si>
-    <t>Ive been staying here a few weeks and Will be here a few more. This place has great customer service ive seen in a long time. Clean spacious rooms. Christie penn is amazing great communication, great personality, very warm and welcoming. I highly recommend this place.More</t>
-  </si>
-  <si>
-    <t>charlesbY5052YY</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r549504283-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>549504283</t>
-  </si>
-  <si>
-    <t>12/27/2017</t>
-  </si>
-  <si>
-    <t>Location and Staff</t>
-  </si>
-  <si>
-    <t>When in Dallas, this is the best location. Kade, Tina, and Tatiana helped my stay to feel like home. Outside of the staff, I really enjoyed my room. Not sure if you could beat the location of this property, which also comes with a great price. MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded December 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 28, 2017</t>
-  </si>
-  <si>
-    <t>When in Dallas, this is the best location. Kade, Tina, and Tatiana helped my stay to feel like home. Outside of the staff, I really enjoyed my room. Not sure if you could beat the location of this property, which also comes with a great price. More</t>
-  </si>
-  <si>
-    <t>fouchermr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r546651937-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>546651937</t>
-  </si>
-  <si>
-    <t>12/11/2017</t>
-  </si>
-  <si>
-    <t>Worst Hotel Ever</t>
-  </si>
-  <si>
-    <t>Roaches on the floor, sticky floors, half of the appliances did not work, missing paint from the tub, stove area had residue and was not clean, and the receptionist was rude telling me that I did not pay for the hotel even though I had proof that the payment was made.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded December 11, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 11, 2017</t>
-  </si>
-  <si>
-    <t>Roaches on the floor, sticky floors, half of the appliances did not work, missing paint from the tub, stove area had residue and was not clean, and the receptionist was rude telling me that I did not pay for the hotel even though I had proof that the payment was made.More</t>
-  </si>
-  <si>
-    <t>James A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r539554740-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>539554740</t>
-  </si>
-  <si>
-    <t>11/08/2017</t>
-  </si>
-  <si>
-    <t>Starts with a lie...</t>
-  </si>
-  <si>
-    <t>1. Saw Priceline had room list for $72 and Extended Stay had online booking for $79. Called Extended Stay to booking if they could Matt. Talked to some sketchy offshore dude thwtbmy promised $79 but with a 15% discount once I arrived at front desk and paid. Never happened...and lot of nice yes we can make that happen when Manager arrives but such a hassle that never got that far. Front desk clerk was polite but over worked but most of the time not to be found and neither was manager. Or, if at desk, a long line of unhappy people waiting for service and check In.2. Common areas are dirty. Rugs have buildup of debris and food particles from many days to weeks between vacuuming. Elevators, same. Sticky floors, etc.3. Room cleanliness a bit better but toliette had very visible mold ring, i.e. housekeeping and.managers must see this but obviously don't care enough to actually take action and clean at even a fundamental level.4. Hotel room is tired. Chipped counters, dented appliances, No coffee maker, silverware, pots, pans or anything along those lines like other extended stay hotels. Do yourself a favor and find another hotel in $80 price range. For what I got, I could have saved $20 and just stayed at a Motel 6 or Red Roof for the same level of dirt and disrepair.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded November 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 9, 2017</t>
-  </si>
-  <si>
-    <t>1. Saw Priceline had room list for $72 and Extended Stay had online booking for $79. Called Extended Stay to booking if they could Matt. Talked to some sketchy offshore dude thwtbmy promised $79 but with a 15% discount once I arrived at front desk and paid. Never happened...and lot of nice yes we can make that happen when Manager arrives but such a hassle that never got that far. Front desk clerk was polite but over worked but most of the time not to be found and neither was manager. Or, if at desk, a long line of unhappy people waiting for service and check In.2. Common areas are dirty. Rugs have buildup of debris and food particles from many days to weeks between vacuuming. Elevators, same. Sticky floors, etc.3. Room cleanliness a bit better but toliette had very visible mold ring, i.e. housekeeping and.managers must see this but obviously don't care enough to actually take action and clean at even a fundamental level.4. Hotel room is tired. Chipped counters, dented appliances, No coffee maker, silverware, pots, pans or anything along those lines like other extended stay hotels. Do yourself a favor and find another hotel in $80 price range. For what I got, I could have saved $20 and just stayed at a Motel 6 or Red Roof for the same level of dirt and disrepair.More</t>
-  </si>
-  <si>
-    <t>Scott S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r526036470-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>526036470</t>
-  </si>
-  <si>
-    <t>09/20/2017</t>
-  </si>
-  <si>
-    <t>Extended Stay America Dallas Coit Rd</t>
-  </si>
-  <si>
-    <t>After several weeks staying here my room was finally cleaned at the request of the manager by the maid Chelsea. Chelsea did a awesome job and the manager is Awesome! Even if it took 4 weeks. Front Desk is Awesome tooMoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded September 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 25, 2017</t>
-  </si>
-  <si>
-    <t>After several weeks staying here my room was finally cleaned at the request of the manager by the maid Chelsea. Chelsea did a awesome job and the manager is Awesome! Even if it took 4 weeks. Front Desk is Awesome tooMore</t>
-  </si>
-  <si>
-    <t>236derrickd</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r506536838-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
-  </si>
-  <si>
-    <t>506536838</t>
-  </si>
-  <si>
-    <t>07/28/2017</t>
-  </si>
-  <si>
-    <t>Clean hotel nice rooms</t>
-  </si>
-  <si>
-    <t>Staying here for six weeks. they are very acommedating. My room service was great and received free wifi. Here for HVAC training for retail ready career center. The pool is also nice and clean. RecommendedMoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Frankford Road, responded to this reviewResponded July 29, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 29, 2017</t>
-  </si>
-  <si>
-    <t>Staying here for six weeks. they are very acommedating. My room service was great and received free wifi. Here for HVAC training for retail ready career center. The pool is also nice and clean. RecommendedMore</t>
-  </si>
-  <si>
-    <t>598ijaza</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r498441846-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -645,9 +621,6 @@
     <t>Never schedule a meeting here. This is a shady place. Unclean and pathetic. I would not recommend this place at all. I made a big mistake by scheduling a business meeting there thinking that it may be a good spot since its on DNT but i was shocked to see that terrible place as I entered from the side door.More</t>
   </si>
   <si>
-    <t>lisandrope</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r495037627-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -675,9 +648,6 @@
     <t>The room smelled and didn't look like it had been cleaned...ever. The shuttle is not as advertised-it only ran twice a day to the school and back. There was a gang fight in the parking lot- several people tried to drag the lobby furniture out into the parking lot. We left as soon as we felt safe to leave.More</t>
   </si>
   <si>
-    <t>moniguer2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r492030822-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -702,9 +672,6 @@
     <t>It was all good. I came in at 2am in the morning. Everyone was friendly and accommodating. This has been a great experience and I would recommend this hotel to my family and friends. Thank you. I used to work front desk for a business owner and this is a sigh of relief.More</t>
   </si>
   <si>
-    <t>Cornelius A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r487970950-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -732,9 +699,6 @@
     <t>Clean rooms, pool, amenities and general area.  The  staff is super friendly. They have a continental breakfast that suits the needs. amenities and location is central for all of Dallas and the metroplex.More</t>
   </si>
   <si>
-    <t>R3046JMmartinc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r484788030-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -762,9 +726,6 @@
     <t>I loved this place because it is very nice and quiet.Some hotels people makes noise like they are walking in a high crime street or area.Very friendly staff.When i plan to visit Dallas again,this will be the place i will spend my daysMore</t>
   </si>
   <si>
-    <t>Josh38th</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r479576825-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -792,9 +753,6 @@
     <t>Lobis Teai Sky Gavin and Gm are awesome.. the Great place to stay..great location..clean friendly.the breakfast bar is all ways neat and clean and most important its all ways stockAnd guest service is all ways with a smile and friendly greet.........................More</t>
   </si>
   <si>
-    <t>Ibidapo I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r479477309-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,9 +771,6 @@
     <t>The hotel is a nice place and well located. Nice rooms and Teai Tubbs and her team are really great people who go the extra mile in ensuring that my stay day was home outside home.The feeling you get when you get into the facility is warm and friendly. It is a well kept facility with high standards and the location is central and easy access to places around.I would definitely come back and also highly recommend the place to friends and family when going to Dallas.More</t>
   </si>
   <si>
-    <t>Mega M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r470439421-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,9 +786,6 @@
     <t>The hotel is ok to stay out. The front desk customer service is great. The rooms get cleaned and restocked once a week. I am here for training in a new Carter path so I can't complain since the company is paying for it. The only thing I can say anything bad is the location in which the hotel resides.</t>
   </si>
   <si>
-    <t>AbbyGarcia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r465426343-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -858,9 +810,6 @@
     <t>Teah and Lobis are amazing people and greatly represent Extended Stay America. They are always eager to help with smiling faces, and have been a pleasure to work with. The rooms are great too! The bed is really comfortable. My room was clean and it feels safe here. More</t>
   </si>
   <si>
-    <t>D D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r464332173-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -876,9 +825,6 @@
     <t>No sheets for pullout, nothing in cabinets at all, counters not clean, breakfast was granola bars muffins. Very disappointed. Only a few analog stations, needed a 2 bed room but they refused to upgrade us even though the place was obviously empty.</t>
   </si>
   <si>
-    <t>JD-pe123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r463347877-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -897,9 +843,6 @@
     <t>I've had to stay in this hotel for some months because i'm studying around here. when i arrived there was a good team of people working to see that everything was going correctly in the hotel. A couple months ago a new manager came and stuff kept the same for a while until the payment time came, it appears that they are charging me more than they should and he doesn't explain why?. He just says that it is what the system does and when he is asked why he says it's the system and he can't do anything. Also when asked if he knows why may that happen he says HE DOES KNOW but doesn't tell why. The previous manager and assistant were amazing, but now if i could this as worse than terrible i would. His name is Germain or something like that by the way (In case there is someone higher up than him reading this and can correct this sort of attitude).More</t>
   </si>
   <si>
-    <t>ikeh3d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r454267693-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -924,9 +867,6 @@
     <t>I was booked at this hotel as were my 2 four man crews. Because of a mix up in our corporate travel department, the rooms for the crews were not booked. There was a huge convention booked for the following couple of days and there were no rooms available.Lobis T. Neal was working the front desk that night and went well above and beyond in working with me in getting our crews put up for that night and subsequently for the next 32 days required to complete our project there in Dallas.I would without hesitation, return to stay at this hotel.More</t>
   </si>
   <si>
-    <t>Kathleen J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r451527312-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -951,9 +891,6 @@
     <t>Better bed than in other ESAs; nicer property as it wasn't built to be an Extended Stay America.  Very pleasant lobby with tables, chairs, couches, and a fireplace [which I hope they've figured out how to light since then.]  We booked this through Priceline Express and were disappointed to find out we'd been given an ESA, but delighted upon arrival at the property.  Same chintzy breakfast as all ESAs, but quite a great deal for the money, and management went out of their way to accommodate our request for a downstairs room.  [No elevator].  Swimming pool looked nice, though we didn't use it since it was winter.More</t>
   </si>
   <si>
-    <t>Cynthia  M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r433701612-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -981,9 +918,6 @@
     <t>Watch out!! If u have a disability. .it is NOT.....ADA accessible!!..the mgr..refused to open the back gate connected to the sidewalk...I was in a wheelchair. .just got off city bus...the only other acces..is ON A HIGHWAY.!!I had to get on DALLAS PARKWAY..Cars..trucks..flying by and honking. .scooting backward to get to the hotel...1 block..away....the assistant mgr..said..people who CAN walk don't have a sidewalk either..IF YOU CAN'T DRIVE. onto the property. ..you can't SAFELY..stay there..IF checked out the next morning. .it took..5 days for priceline to refund my 6 nights..it had prepaid..it had to pay for that first night.....THEN..the room. Was not Ada accessible. .no bars in bathroom..it their danky..room...it had to hold onto the curtain.. and sink to transfer..A NIGHTMARE! !....THE MGR NEVER DID ANYTHING TO RESOLVE THE SITUATION. .More</t>
   </si>
   <si>
-    <t>heather l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r432935468-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +945,6 @@
     <t>We stayed here overnight when we have a long layover. The staff was super nice, grounds were kept decent and it was very quiet. Breakfast muffins and coffee were a very nice addition on our way out the door. Would stay here again!More</t>
   </si>
   <si>
-    <t>JimNtexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r432076419-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +963,6 @@
     <t>I spent a month here while attending training in Dallas.   Our hosts had negotiated about a 50% discount over the rack rate.   For that price I was satisfied.  For the advertised price in October 2016 of $99/day I would have felt really ripped off.  The best part of this hotel is the staff.  They are all helpful and polite.  The WIFi is satisfactory, and you have basic cable TV.    I had a ground floor room next to the swimming pool which was adequate.  It was clean and had no bugs.My friends who had ground floor rooms facing the outside suffered through a plague of crickets.There is one Big Lie in Extended Stay America's advertising.THERE IS NO BREAKFAST.   They layout some granola bars and plastic muffins.  That's 'breakfast'.   NOTAgain, this place is decent with good staff.  Be ready to ask for a different room if they one they give you has bugs or broken fixtures.  They'll do it.Don't pay the rack rate.More</t>
   </si>
   <si>
-    <t>Jimmy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r395145743-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1060,9 +988,6 @@
   </si>
   <si>
     <t>Audrey Kimbrell made this experience excellent. She helped out with any situation that arose. The rooms were well kept and well sized for the extended stay. There was always coffee, muffins, fresh fruit, and granola bars out every morning. Close to albertsons and several fast food restaraunts.More</t>
-  </si>
-  <si>
-    <t>Princess_Ronna</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r395082291-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
@@ -1088,9 +1013,6 @@
 1. The assistant manager, Aubrey; is not worthy of this hotel and is only courteous to specific genders.  I do not plan on interacting...I have stayed in this hotel for the past three weeks and I have one week left.  I have thoroughly enjoyed my stay as the staff is very friendly (except for one assistant manager who is just absolutely horrible).  The Manager, Sergio; is simply very calm and relaxing and easy to speak with and will go out of his way to help you out.  Teai, front desk; is sweet and very personable and totally believe she should be promoted to management.  She greets everyone extremely professional.  Maria, my cleaner; is so sweet and caring and would just knock on my door to see if I needed anything on the days she did not clean my room.  She always has a smile on her face and super-duper friendly.  Earsmo, oh my goodness!  This man is so sweet.  Anytime he saw me, he would smile and greet me!  He is always upbeat and totally makes you smile when you see him.  There are other workers, but these are the cream of the crop.  This is in a perfect area of Dallas.  North Dallas.  Minutes away from the Galleria Mall and Willow Bend Mall.  Minutes from Plano, Carrollton, Richardson, and a straight shot to Downtown Dallas.  Perfect location if you want everything at your finger tips!My issues here:1. The assistant manager, Aubrey; is not worthy of this hotel and is only courteous to specific genders.  I do not plan on interacting with her for my next 8 days, here. She needs to take some management classes along with  customer service classes.  2. I reserved my room via the phone.  Amber who took my reservation, promised me a first floor room; however, I was told I could not have one when I got here (the elevator here is very slow even though it is only 3 floors.  So, I took the stairs....90% of the time!More</t>
   </si>
   <si>
-    <t>Sarah H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r386458493-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1115,9 +1037,6 @@
     <t>Staff was very helpful and friendly. Our first room had a broken cabinet door so they changed our room to a different one. There were not hair dryers in the bathroom, we had to get one from the front desk. The thermostat was annoying - it kept going up to 78 when we put it on 72. We were very hot. The breakfast was not great- it was a grab and go breakfast of coffee, muffins, granola bars, and apples. I was expecting more variety I guess. Our phone in our room did not work. I wouldn't stay again but if you're looking for a cheap hotel this one is ok.More</t>
   </si>
   <si>
-    <t>marciastone39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r381465926-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1142,9 +1061,6 @@
     <t>Great location, friendly accommodating staff, and clean spacious rooms. I was  very satisfied with the overall stay and that's hard to do. Thank you.  I look forward to seeing you next year and B.B.Q with my co-workers.More</t>
   </si>
   <si>
-    <t>Anthony P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r381245948-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1163,9 +1079,6 @@
     <t>After a period away I have returned to the Big D and to the Extended Stay America at Frankford Road in North Dallas. Much has changed, the hotel has been renovated, flooring and mattresses are new as are many of the people but it is still great value for the price with the same friendly, helpful approach from every member of the staff. The pool and patio are a great place to relax and the grills are still there! Many of the long term guests are still here and like me wouldn't think of staying anywhere else!More</t>
   </si>
   <si>
-    <t>yojimbo56003</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r380388794-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,9 +1094,6 @@
     <t>Clean, quiet room. Got a suite for a great price on Priceline. Bed was good, ac was adequate, the hot water stayed hot all through the shower. The TV could have been bigger, but it was quite a ways from the bed because the room was good-sized. A comfortable place to spend a night.</t>
   </si>
   <si>
-    <t>Yelda K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r349978735-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1208,9 +1118,6 @@
     <t>Also dogs friendly wonderful we feel like home Location was great for what we were doing. The good: room was spotlessly clean, large and pleasant. People who worked there were very nice. Price was reasonable. The bad: wifi in our room was very spotty, often not there at all. Sunday night NBC disappeared on the tv, no Sunday night football, for heaven's sake. More</t>
   </si>
   <si>
-    <t>Randy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r348456603-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1238,9 +1145,6 @@
     <t>Check in and Check was terrible...people upfront were aloof and seemed confused and not interested or sure of how to check me in or out. I was not looked up at once and the guy just handed my key, no welcome, thanks or anything. when i asked for my bill he went behind a wall and after ten minutes i just left.More</t>
   </si>
   <si>
-    <t>Breakfast86ed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r333470615-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1268,9 +1172,6 @@
     <t>nice roomy place liking it so far not super plush but feels more like a apt so for that im happy was really looking forward to breakfast Fruit and apples IS NOT BREAKFAST it is a snack..yall please do something about having a actual breakfast I mean yall do charge enough...More</t>
   </si>
   <si>
-    <t>Tannerwes89</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r329963507-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1298,9 +1199,6 @@
     <t>Dallas became my home this past summer. Having never resided at an extended stay, I was a bit skeptical booking my first reservation. Upon, settling in, I quickly felt home. The rooms were very spacious, comfortable but most of all it was the staff that killed it for me. Anytime I needed something or was just passing through, I was well accommodated to. Felt very valued and is why I have returned twice since. With this customer service, you guys shall be proud. Thank you all!More</t>
   </si>
   <si>
-    <t>Missy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r323871934-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1328,9 +1226,6 @@
     <t>TERRIBLE PLACE TO STAY. PEOPLE SMOKE HAVE DOGS THERE IS NO BREAKFAST. It's a grab and go coffee bar. With ORANGES. Screaming down the hallways. Shady characters. White maid selling drugs and playing loud music. Tv's are too small and too far from beds. More</t>
   </si>
   <si>
-    <t>EvylikeChevy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r320638842-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1346,9 +1241,6 @@
     <t>I've basically been living in hotels the last few weeks. This is by far the best. Big room, with closet, refrigerator, microwave oven, stove. It has a pool, which I'd never use, but the view is nice. Great location. Staff is nice, helpful. Breakfast leaves something to be desired. It's basically apples.</t>
   </si>
   <si>
-    <t>Marino059</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r292470722-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1373,9 +1265,6 @@
     <t>The rooms are very large and clean. There is a lovely pool and hot tub, along with barbeque grills. It has a great location and friendly staff. The beds are extremely comfortable, and there is even a shuttle service to take you to nearby shopping and business locations. There are also very good reatuarants nearby. The price was great, and I would definately stay here again.More</t>
   </si>
   <si>
-    <t>Jude R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r284532851-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1401,9 +1290,6 @@
   </si>
   <si>
     <t>The attentiveness and care by manager James, and staff people such as Freddy, Maria, Jason and Tia made this home away from home. There is no question that my work engagement has lasted longer because as a contractor employed in North Dallas I had such a clean and wonderfully pleasant place to rest, restore, get guidance about the area, and even address business back home. The van service was a life-saver in my work commute. The coffee and breakfast available started my days off efficiently. I think this is an excellent place for any traveler, but for an extended-stay business traveler like myself, it really was home away from home and made achieving my goals in Texas possible!More</t>
-  </si>
-  <si>
-    <t>Morris C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109339-r277120462-Extended_Stay_America_Dallas_Frankford_Road-Dallas_Texas.html</t>
@@ -1949,47 +1835,43 @@
       <c r="A2" t="n">
         <v>37246</v>
       </c>
-      <c r="B2" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2001,135 +1883,117 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37246</v>
       </c>
-      <c r="B3" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37246</v>
       </c>
-      <c r="B4" t="n">
-        <v>136031</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2145,60 +2009,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37246</v>
       </c>
-      <c r="B5" t="n">
-        <v>136032</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2210,51 +2070,47 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37246</v>
       </c>
-      <c r="B6" t="n">
-        <v>136033</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -2271,60 +2127,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37246</v>
       </c>
-      <c r="B7" t="n">
-        <v>136034</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2346,60 +2198,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37246</v>
       </c>
-      <c r="B8" t="n">
-        <v>15289</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2421,60 +2269,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37246</v>
       </c>
-      <c r="B9" t="n">
-        <v>136035</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2496,60 +2340,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37246</v>
       </c>
-      <c r="B10" t="n">
-        <v>136036</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2561,60 +2401,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37246</v>
       </c>
-      <c r="B11" t="n">
-        <v>136037</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2626,60 +2462,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37246</v>
       </c>
-      <c r="B12" t="n">
-        <v>22264</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2691,60 +2523,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37246</v>
       </c>
-      <c r="B13" t="n">
-        <v>136038</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2766,60 +2594,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37246</v>
       </c>
-      <c r="B14" t="n">
-        <v>136039</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2831,60 +2655,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37246</v>
       </c>
-      <c r="B15" t="n">
-        <v>6838</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2896,60 +2716,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37246</v>
       </c>
-      <c r="B16" t="n">
-        <v>6881</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2961,60 +2777,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37246</v>
       </c>
-      <c r="B17" t="n">
-        <v>136040</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3036,135 +2848,127 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37246</v>
       </c>
-      <c r="B18" t="n">
-        <v>136041</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37246</v>
       </c>
-      <c r="B19" t="n">
-        <v>136042</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3186,610 +2990,582 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37246</v>
       </c>
-      <c r="B20" t="n">
-        <v>136043</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37246</v>
       </c>
-      <c r="B21" t="n">
-        <v>136044</v>
-      </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37246</v>
       </c>
-      <c r="B22" t="n">
-        <v>136045</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37246</v>
       </c>
-      <c r="B23" t="n">
-        <v>136046</v>
-      </c>
-      <c r="C23" t="s">
-        <v>248</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37246</v>
       </c>
-      <c r="B24" t="n">
-        <v>136047</v>
-      </c>
-      <c r="C24" t="s">
-        <v>258</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37246</v>
       </c>
-      <c r="B25" t="n">
-        <v>136048</v>
-      </c>
-      <c r="C25" t="s">
-        <v>265</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
       <c r="Y25" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37246</v>
       </c>
-      <c r="B26" t="n">
-        <v>136049</v>
-      </c>
-      <c r="C26" t="s">
-        <v>271</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>277</v>
-      </c>
-      <c r="X26" t="s">
-        <v>278</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37246</v>
       </c>
-      <c r="B27" t="n">
-        <v>75068</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>263</v>
-      </c>
-      <c r="O27" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37246</v>
       </c>
-      <c r="B28" t="n">
-        <v>136050</v>
-      </c>
-      <c r="C28" t="s">
-        <v>286</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3797,185 +3573,175 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37246</v>
       </c>
-      <c r="B29" t="n">
-        <v>136051</v>
-      </c>
-      <c r="C29" t="s">
-        <v>293</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>299</v>
-      </c>
-      <c r="X29" t="s">
-        <v>300</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37246</v>
       </c>
-      <c r="B30" t="n">
-        <v>13561</v>
-      </c>
-      <c r="C30" t="s">
-        <v>302</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37246</v>
       </c>
-      <c r="B31" t="n">
-        <v>136052</v>
-      </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>317</v>
-      </c>
-      <c r="O31" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3986,138 +3752,124 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37246</v>
       </c>
-      <c r="B32" t="n">
-        <v>136053</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37246</v>
       </c>
-      <c r="B33" t="n">
-        <v>136054</v>
-      </c>
-      <c r="C33" t="s">
-        <v>331</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
-        <v>317</v>
-      </c>
-      <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4126,68 +3878,64 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37246</v>
       </c>
-      <c r="B34" t="n">
-        <v>27980</v>
-      </c>
-      <c r="C34" t="s">
-        <v>338</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
       <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4197,67 +3945,63 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37246</v>
       </c>
-      <c r="B35" t="n">
-        <v>136055</v>
-      </c>
-      <c r="C35" t="s">
-        <v>348</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
@@ -4267,266 +4011,252 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>322</v>
+      </c>
       <c r="Y35" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37246</v>
       </c>
-      <c r="B36" t="n">
-        <v>2411</v>
-      </c>
-      <c r="C36" t="s">
-        <v>354</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>360</v>
-      </c>
-      <c r="X36" t="s">
-        <v>361</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37246</v>
       </c>
-      <c r="B37" t="n">
-        <v>136056</v>
-      </c>
-      <c r="C37" t="s">
-        <v>363</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="X37" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37246</v>
       </c>
-      <c r="B38" t="n">
-        <v>12246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>372</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>327</v>
-      </c>
-      <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="X38" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="Y38" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37246</v>
       </c>
-      <c r="B39" t="n">
-        <v>136057</v>
-      </c>
-      <c r="C39" t="s">
-        <v>379</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="n">
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4535,325 +4265,309 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
       <c r="Y39" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37246</v>
       </c>
-      <c r="B40" t="n">
-        <v>136058</v>
-      </c>
-      <c r="C40" t="s">
-        <v>385</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>391</v>
-      </c>
-      <c r="X40" t="s">
-        <v>392</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37246</v>
       </c>
-      <c r="B41" t="n">
-        <v>8855</v>
-      </c>
-      <c r="C41" t="s">
-        <v>394</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="s">
-        <v>400</v>
-      </c>
-      <c r="O41" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="X41" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="Y41" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37246</v>
       </c>
-      <c r="B42" t="n">
-        <v>136059</v>
-      </c>
-      <c r="C42" t="s">
-        <v>404</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" t="n">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
         <v>3</v>
       </c>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="X42" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="Y42" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37246</v>
       </c>
-      <c r="B43" t="n">
-        <v>136060</v>
-      </c>
-      <c r="C43" t="s">
-        <v>414</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="X43" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="Y43" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37246</v>
       </c>
-      <c r="B44" t="n">
-        <v>136061</v>
-      </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
       <c r="I44" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4865,281 +4579,326 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="X44" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="Y44" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37246</v>
       </c>
-      <c r="B45" t="n">
-        <v>136062</v>
-      </c>
-      <c r="C45" t="s">
-        <v>434</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
       <c r="I45" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>397</v>
+      </c>
+      <c r="X45" t="s">
+        <v>398</v>
+      </c>
       <c r="Y45" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37246</v>
       </c>
-      <c r="B46" t="n">
-        <v>136063</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="J46" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>446</v>
-      </c>
-      <c r="X46" t="s">
-        <v>447</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37246</v>
       </c>
-      <c r="B47" t="n">
-        <v>136064</v>
-      </c>
-      <c r="C47" t="s">
-        <v>449</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
         <v>47</v>
       </c>
-      <c r="H47" t="s">
-        <v>48</v>
-      </c>
       <c r="I47" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>455</v>
-      </c>
-      <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="X47" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="Y47" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37246</v>
       </c>
-      <c r="B48" t="n">
-        <v>136065</v>
-      </c>
-      <c r="C48" t="s">
-        <v>459</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
       <c r="I48" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="X48" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="Y48" t="s">
-        <v>468</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37246</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+      <c r="J49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>427</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>428</v>
+      </c>
+      <c r="X49" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
